--- a/cheatingdetection/最终名单.xlsx
+++ b/cheatingdetection/最终名单.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>14.3前测</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>14.3后测</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>15.2前测</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>15.2后测</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>15.5前测</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15.5后测</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>15.7前测</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>14.3前测</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>14.3后测</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>15.2前测</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>15.5前测</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>15.2后测</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>15.5后测</t>
         </is>
       </c>
     </row>
@@ -482,59 +482,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>张俊豪</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>张俊豪</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>陈慧纯</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>李晴晴</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>孙雨辰</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>高宇囡</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>曾凤鸣</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>张俊豪</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>张俊豪</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>陈慧纯</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>孙雨辰</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>李晴晴</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>高宇囡</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>史钧宇</t>
+          <t>陈慧纯</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>陈慧纯</t>
+          <t>刘美妍</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>刘美妍</t>
+          <t>王明迪</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>王明迪</t>
+          <t>蒋浩楠</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -545,78 +545,78 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>蒋浩楠</t>
+          <t>史钧宇</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>高宇囡</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>史钧宇</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>史钧宇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>闫夏晗</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>高宇囡</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>魏李歌</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>魏李歌</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>李晴晴</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>尉一鸣</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>尉一鸣</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>兰清然</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>安思莹</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安思莹</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>蒋浩楠</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -624,12 +624,12 @@
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>王煦蕊</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -646,32 +646,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>王嘉立</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>王嘉立</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>成诺</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>王嘉立</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>王嘉立</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>朱宝硕</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>成诺</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>成诺</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>朱宝硕</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -683,32 +683,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>邹小贝</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>余泽林</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱宝硕</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>华姝涵</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>柳兴芳</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>王嘉立</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>邹小贝</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>余泽林</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>朱宝硕</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>柳兴芳</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>华姝涵</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -725,129 +725,129 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>蓝浩</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>王怀玉</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>王怀玉</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>王怀玉</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>李笑南</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>文运</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>蓝浩</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>王怀玉</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>王怀玉</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>王怀玉</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>李笑南</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>蓝浩</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>李笑南</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>李笑南</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>李笑南</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>蓝浩</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>张宝月</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>李笑南</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>李笑南</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>蓝浩</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>李笑南</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>张宝月</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>李笑南</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兰永杰</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>张宝月</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>李笑南</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>张宝月</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>张宝月</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>兰永杰</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>李笑南</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>张宝月</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>张宝月</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>张宝月</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>兰永杰</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>房家琦</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
